--- a/biology/Médecine/Alain_Le_Marc'hadour/Alain_Le_Marc'hadour.xlsx
+++ b/biology/Médecine/Alain_Le_Marc'hadour/Alain_Le_Marc'hadour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alain_Le_Marc%27hadour</t>
+          <t>Alain_Le_Marc'hadour</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alain Le Marc'hadour, né le 17 juin 1896 au lieu-dit Aber-Wrach à Landéda et mort le 16 août 1978 à Pluguffan[1], est un homme politique français.
+Alain Le Marc'hadour, né le 17 juin 1896 au lieu-dit Aber-Wrach à Landéda et mort le 16 août 1978 à Pluguffan, est un homme politique français.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alain_Le_Marc%27hadour</t>
+          <t>Alain_Le_Marc'hadour</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d'Arthur Le Marc’hadour, président de la Cour de cassation.
 Médecin de profession, il commence sa vie politique en devenant maire de La Madeleine de 1947 à 1971. De 1951 à 1976, il est élu conseiller général sur le canton de Lille-Nord. Suppléant de Liévin Danel, aux élections législatives de 1968, il entre à l'Assemblée Nationale, à la suite du décès de ce dernier, en 1970. Il ne se représente pas aux élections législatives de 1973, et cède sa place à Pierre Billecocq à qui il avait laissé son poste de maire, deux ans auparavant.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alain_Le_Marc%27hadour</t>
+          <t>Alain_Le_Marc'hadour</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Croix de guerre 1914-1918.
 Officier de la Légion d’honneur
